--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_16ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.2652549652749</v>
+        <v>300.0821368311993</v>
       </c>
       <c r="AB2" t="n">
-        <v>276.7482451566347</v>
+        <v>410.5856183019851</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.3357810575682</v>
+        <v>371.3999031517773</v>
       </c>
       <c r="AD2" t="n">
-        <v>202265.2549652749</v>
+        <v>300082.1368311992</v>
       </c>
       <c r="AE2" t="n">
-        <v>276748.2451566347</v>
+        <v>410585.618301985</v>
       </c>
       <c r="AF2" t="n">
         <v>8.796337563258791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>250335.7810575682</v>
+        <v>371399.9031517773</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>164.9237162816325</v>
+        <v>243.1977210256374</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.6559045372812</v>
+        <v>332.7538510333493</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.1196217183592</v>
+        <v>300.9962905137886</v>
       </c>
       <c r="AD3" t="n">
-        <v>164923.7162816325</v>
+        <v>243197.7210256374</v>
       </c>
       <c r="AE3" t="n">
-        <v>225655.9045372812</v>
+        <v>332753.8510333493</v>
       </c>
       <c r="AF3" t="n">
         <v>1.05095591567716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>204119.6217183592</v>
+        <v>300996.2905137885</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.6234221685605</v>
+        <v>231.0757512532936</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.5085406499637</v>
+        <v>316.1680372072736</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.2726378230932</v>
+        <v>285.9934034809323</v>
       </c>
       <c r="AD4" t="n">
-        <v>162623.4221685605</v>
+        <v>231075.7512532936</v>
       </c>
       <c r="AE4" t="n">
-        <v>222508.5406499637</v>
+        <v>316168.0372072736</v>
       </c>
       <c r="AF4" t="n">
         <v>1.10260087393654e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>201272.6378230932</v>
+        <v>285993.4034809323</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.890130030708</v>
+        <v>251.3345232315718</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.9241473990168</v>
+        <v>343.8869827818817</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.2170006999616</v>
+        <v>311.0668917936931</v>
       </c>
       <c r="AD2" t="n">
-        <v>173890.130030708</v>
+        <v>251334.5232315718</v>
       </c>
       <c r="AE2" t="n">
-        <v>237924.1473990168</v>
+        <v>343886.9827818817</v>
       </c>
       <c r="AF2" t="n">
         <v>1.097775998124441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>215217.0006999616</v>
+        <v>311066.8917936931</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.7139819058416</v>
+        <v>227.0900442691439</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.8452749582111</v>
+        <v>310.7146170745805</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.2951294184068</v>
+        <v>281.0604501117784</v>
       </c>
       <c r="AD3" t="n">
-        <v>149713.9819058416</v>
+        <v>227090.0442691439</v>
       </c>
       <c r="AE3" t="n">
-        <v>204845.2749582111</v>
+        <v>310714.6170745805</v>
       </c>
       <c r="AF3" t="n">
         <v>1.238359593140942e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.88020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185295.1294184068</v>
+        <v>281060.4501117785</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.4297435626527</v>
+        <v>217.1935876134086</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.4563675173496</v>
+        <v>297.1738484773565</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.943338757866</v>
+        <v>268.8119934648811</v>
       </c>
       <c r="AD4" t="n">
-        <v>149429.7435626527</v>
+        <v>217193.5876134086</v>
       </c>
       <c r="AE4" t="n">
-        <v>204456.3675173496</v>
+        <v>297173.8484773565</v>
       </c>
       <c r="AF4" t="n">
         <v>1.25365905558762e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>184943.338757866</v>
+        <v>268811.9934648811</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.9920502212756</v>
+        <v>207.3789371728751</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.2797873598104</v>
+        <v>283.7450107528068</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.7379971276391</v>
+        <v>256.6647851652661</v>
       </c>
       <c r="AD2" t="n">
-        <v>141992.0502212756</v>
+        <v>207378.9371728751</v>
       </c>
       <c r="AE2" t="n">
-        <v>194279.7873598104</v>
+        <v>283745.0107528068</v>
       </c>
       <c r="AF2" t="n">
         <v>1.781831528734063e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>175737.9971276392</v>
+        <v>256664.7851652661</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7191941296639</v>
+        <v>210.99569980253</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0111859683635</v>
+        <v>288.6936249430042</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.113276290044</v>
+        <v>261.1411105625763</v>
       </c>
       <c r="AD2" t="n">
-        <v>144719.194129664</v>
+        <v>210995.69980253</v>
       </c>
       <c r="AE2" t="n">
-        <v>198011.1859683635</v>
+        <v>288693.6249430042</v>
       </c>
       <c r="AF2" t="n">
         <v>1.550565625676352e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179113.276290044</v>
+        <v>261141.1105625763</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.701126074568</v>
+        <v>210.9776317474341</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.986464458275</v>
+        <v>288.6689034329157</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.0909141661814</v>
+        <v>261.1187484387137</v>
       </c>
       <c r="AD3" t="n">
-        <v>144701.126074568</v>
+        <v>210977.6317474341</v>
       </c>
       <c r="AE3" t="n">
-        <v>197986.4644582749</v>
+        <v>288668.9034329157</v>
       </c>
       <c r="AF3" t="n">
         <v>1.551992470320355e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>179090.9141661814</v>
+        <v>261118.7484387137</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8444235752454</v>
+        <v>204.6031259134848</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.3413098361127</v>
+        <v>279.9470233275609</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.0799637746231</v>
+        <v>253.2292723293756</v>
       </c>
       <c r="AD2" t="n">
-        <v>139844.4235752454</v>
+        <v>204603.1259134848</v>
       </c>
       <c r="AE2" t="n">
-        <v>191341.3098361127</v>
+        <v>279947.0233275609</v>
       </c>
       <c r="AF2" t="n">
         <v>2.004831294307271e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.69791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173079.9637746231</v>
+        <v>253229.2723293756</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.7629250261373</v>
+        <v>263.3670348090492</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.1690293025029</v>
+        <v>360.3503959592948</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.9114938744191</v>
+        <v>325.9590599238961</v>
       </c>
       <c r="AD2" t="n">
-        <v>185762.9250261373</v>
+        <v>263367.0348090492</v>
       </c>
       <c r="AE2" t="n">
-        <v>254169.0293025029</v>
+        <v>360350.3959592948</v>
       </c>
       <c r="AF2" t="n">
         <v>1.035212479395657e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>229911.4938744191</v>
+        <v>325959.0599238961</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>160.4290052927603</v>
+        <v>228.3241863768424</v>
       </c>
       <c r="AB3" t="n">
-        <v>219.5060426696554</v>
+        <v>312.4032247528399</v>
       </c>
       <c r="AC3" t="n">
-        <v>198.5566940359922</v>
+        <v>282.5878994432011</v>
       </c>
       <c r="AD3" t="n">
-        <v>160429.0052927603</v>
+        <v>228324.1863768424</v>
       </c>
       <c r="AE3" t="n">
-        <v>219506.0426696553</v>
+        <v>312403.2247528399</v>
       </c>
       <c r="AF3" t="n">
         <v>1.196706012298613e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.01041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>198556.6940359922</v>
+        <v>282587.8994432011</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.3440463938023</v>
+        <v>218.3065472855887</v>
       </c>
       <c r="AB4" t="n">
-        <v>205.7073569871219</v>
+        <v>298.6966490011479</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.0749355484184</v>
+        <v>270.1894600439463</v>
       </c>
       <c r="AD4" t="n">
-        <v>150344.0463938023</v>
+        <v>218306.5472855887</v>
       </c>
       <c r="AE4" t="n">
-        <v>205707.3569871219</v>
+        <v>298696.6490011479</v>
       </c>
       <c r="AF4" t="n">
         <v>1.209132551929441e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>186074.9355484184</v>
+        <v>270189.4600439463</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.6347161281805</v>
+        <v>212.0825321956459</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.6861347385132</v>
+        <v>290.1806769709258</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.5827562652851</v>
+        <v>262.486240432044</v>
       </c>
       <c r="AD2" t="n">
-        <v>138634.7161281804</v>
+        <v>212082.5321956459</v>
       </c>
       <c r="AE2" t="n">
-        <v>189686.1347385132</v>
+        <v>290180.6769709258</v>
       </c>
       <c r="AF2" t="n">
         <v>2.147823611836667e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>171582.7562652851</v>
+        <v>262486.240432044</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.8171165083812</v>
+        <v>225.8689031858273</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.3005853233546</v>
+        <v>309.0437979714451</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.5617224434429</v>
+        <v>279.5490916388365</v>
       </c>
       <c r="AD2" t="n">
-        <v>158817.1165083812</v>
+        <v>225868.9031858273</v>
       </c>
       <c r="AE2" t="n">
-        <v>217300.5853233546</v>
+        <v>309043.7979714451</v>
       </c>
       <c r="AF2" t="n">
         <v>1.30218778211231e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.34895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>196561.7224434429</v>
+        <v>279549.0916388365</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.2228047055097</v>
+        <v>214.3419111906602</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.4367364097373</v>
+        <v>293.2720589886692</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.2118970050843</v>
+        <v>265.282585288797</v>
       </c>
       <c r="AD3" t="n">
-        <v>147222.8047055097</v>
+        <v>214341.9111906602</v>
       </c>
       <c r="AE3" t="n">
-        <v>201436.7364097373</v>
+        <v>293272.0589886692</v>
       </c>
       <c r="AF3" t="n">
         <v>1.376999867767316e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182211.8970050843</v>
+        <v>265282.585288797</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.2238188489325</v>
+        <v>249.3310570898858</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.6442269276517</v>
+        <v>341.14575202014</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.1546726384944</v>
+        <v>308.5872802485097</v>
       </c>
       <c r="AD2" t="n">
-        <v>172223.8188489325</v>
+        <v>249331.0570898858</v>
       </c>
       <c r="AE2" t="n">
-        <v>235644.2269276517</v>
+        <v>341145.7520201401</v>
       </c>
       <c r="AF2" t="n">
         <v>1.155367018858065e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213154.6726384944</v>
+        <v>308587.2802485097</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.8941649254631</v>
+        <v>216.4517979594719</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.7235651978853</v>
+        <v>296.1588991473907</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.2804740632766</v>
+        <v>267.8939094744767</v>
       </c>
       <c r="AD3" t="n">
-        <v>148894.1649254631</v>
+        <v>216451.7979594718</v>
       </c>
       <c r="AE3" t="n">
-        <v>203723.5651978853</v>
+        <v>296158.8991473907</v>
       </c>
       <c r="AF3" t="n">
         <v>1.283941931658101e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>184280.4740632766</v>
+        <v>267893.9094744767</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.5287551221438</v>
+        <v>277.5982805473922</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.0040453454121</v>
+        <v>379.8222142167471</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.9489224213101</v>
+        <v>343.5725151757257</v>
       </c>
       <c r="AD2" t="n">
-        <v>199528.7551221438</v>
+        <v>277598.2805473922</v>
       </c>
       <c r="AE2" t="n">
-        <v>273004.045345412</v>
+        <v>379822.214216747</v>
       </c>
       <c r="AF2" t="n">
         <v>9.344300296642723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.13541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>246948.9224213101</v>
+        <v>343572.5151757257</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.3511381618371</v>
+        <v>241.4196525572247</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.504233776528</v>
+        <v>330.3210193120238</v>
       </c>
       <c r="AC3" t="n">
-        <v>202.1733033951226</v>
+        <v>298.7956448374447</v>
       </c>
       <c r="AD3" t="n">
-        <v>163351.1381618371</v>
+        <v>241419.6525572247</v>
       </c>
       <c r="AE3" t="n">
-        <v>223504.233776528</v>
+        <v>330321.0193120238</v>
       </c>
       <c r="AF3" t="n">
         <v>1.100159732950748e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>202173.3033951226</v>
+        <v>298795.6448374448</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>161.8550146869488</v>
+        <v>230.1275397166418</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.4571716338775</v>
+        <v>314.8706523506866</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.3216099902963</v>
+        <v>284.8198392141666</v>
       </c>
       <c r="AD4" t="n">
-        <v>161855.0146869488</v>
+        <v>230127.5397166418</v>
       </c>
       <c r="AE4" t="n">
-        <v>221457.1716338775</v>
+        <v>314870.6523506866</v>
       </c>
       <c r="AF4" t="n">
         <v>1.137329702787525e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>200321.6099902963</v>
+        <v>284819.8392141666</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.6830345694012</v>
+        <v>222.7726396454871</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.6981990965362</v>
+        <v>304.807353598047</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.5438446565113</v>
+        <v>275.7169675705471</v>
       </c>
       <c r="AD2" t="n">
-        <v>146683.0345694012</v>
+        <v>222772.6396454871</v>
       </c>
       <c r="AE2" t="n">
-        <v>200698.1990965362</v>
+        <v>304807.353598047</v>
       </c>
       <c r="AF2" t="n">
         <v>1.435760416652208e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>181543.8446565113</v>
+        <v>275716.9675705471</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.7645326602423</v>
+        <v>212.4027265846839</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.4414642629813</v>
+        <v>290.6187810599869</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.407050831632</v>
+        <v>262.8825324817282</v>
       </c>
       <c r="AD3" t="n">
-        <v>145764.5326602423</v>
+        <v>212402.7265846839</v>
       </c>
       <c r="AE3" t="n">
-        <v>199441.4642629813</v>
+        <v>290618.7810599869</v>
       </c>
       <c r="AF3" t="n">
         <v>1.477472931722113e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>180407.050831632</v>
+        <v>262882.5324817282</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.7386316044872</v>
+        <v>208.4436799585288</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.3012929451662</v>
+        <v>285.201838805274</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.6620116536209</v>
+        <v>257.9825755930773</v>
       </c>
       <c r="AD2" t="n">
-        <v>142738.6316044872</v>
+        <v>208443.6799585288</v>
       </c>
       <c r="AE2" t="n">
-        <v>195301.2929451661</v>
+        <v>285201.8388052739</v>
       </c>
       <c r="AF2" t="n">
         <v>1.70925981487285e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>176662.0116536209</v>
+        <v>257982.5755930773</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.8753620987817</v>
+        <v>205.9156487958617</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.7518854058119</v>
+        <v>281.7428750396509</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.3559159917059</v>
+        <v>254.8537304745581</v>
       </c>
       <c r="AD2" t="n">
-        <v>140875.3620987817</v>
+        <v>205915.6487958617</v>
       </c>
       <c r="AE2" t="n">
-        <v>192751.8854058119</v>
+        <v>281742.8750396509</v>
       </c>
       <c r="AF2" t="n">
         <v>1.892880109754674e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>174355.9159917059</v>
+        <v>254853.7304745581</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9073891824551</v>
+        <v>219.8149473811849</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.0051709759434</v>
+        <v>300.7605085578572</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.8215195705857</v>
+        <v>272.056347741209</v>
       </c>
       <c r="AD2" t="n">
-        <v>146907.3891824551</v>
+        <v>219814.9473811849</v>
       </c>
       <c r="AE2" t="n">
-        <v>201005.1709759434</v>
+        <v>300760.5085578572</v>
       </c>
       <c r="AF2" t="n">
         <v>2.268932432107512e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>181821.5195705857</v>
+        <v>272056.347741209</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.4595845554161</v>
+        <v>237.3889006743718</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.5478825658828</v>
+        <v>324.8059667616842</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.5945407912464</v>
+        <v>293.8069411620831</v>
       </c>
       <c r="AD2" t="n">
-        <v>160459.5845554161</v>
+        <v>237388.9006743718</v>
       </c>
       <c r="AE2" t="n">
-        <v>219547.8825658828</v>
+        <v>324805.9667616842</v>
       </c>
       <c r="AF2" t="n">
         <v>1.231594281618711e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>198594.5407912464</v>
+        <v>293806.9411620831</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.1113674502992</v>
+        <v>215.4544137958186</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.6525071577793</v>
+        <v>294.7942341331973</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.3116362992786</v>
+        <v>266.6594861739181</v>
       </c>
       <c r="AD3" t="n">
-        <v>148111.3674502992</v>
+        <v>215454.4137958186</v>
       </c>
       <c r="AE3" t="n">
-        <v>202652.5071577793</v>
+        <v>294794.2341331973</v>
       </c>
       <c r="AF3" t="n">
         <v>1.32660586657991e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>183311.6362992786</v>
+        <v>266659.4861739181</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>187.5474808391105</v>
+        <v>275.1402745569713</v>
       </c>
       <c r="AB2" t="n">
-        <v>256.6107372948577</v>
+        <v>376.4590619810821</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.1201686829431</v>
+        <v>340.5303374692188</v>
       </c>
       <c r="AD2" t="n">
-        <v>187547.4808391105</v>
+        <v>275140.2745569713</v>
       </c>
       <c r="AE2" t="n">
-        <v>256610.7372948577</v>
+        <v>376459.0619810821</v>
       </c>
       <c r="AF2" t="n">
         <v>9.868783873790941e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>232120.1686829431</v>
+        <v>340530.3374692188</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.7823285526535</v>
+        <v>229.8693102956676</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.3577192582488</v>
+        <v>314.5173314646319</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.2316492098153</v>
+        <v>284.5002387775878</v>
       </c>
       <c r="AD3" t="n">
-        <v>161782.3285526535</v>
+        <v>229869.3102956676</v>
       </c>
       <c r="AE3" t="n">
-        <v>221357.7192582488</v>
+        <v>314517.3314646319</v>
       </c>
       <c r="AF3" t="n">
         <v>1.151879025417803e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>200231.6492098153</v>
+        <v>284500.2387775878</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>150.9887327168063</v>
+        <v>228.8110322229231</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.5894452558089</v>
+        <v>313.0693487175701</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8728385507609</v>
+        <v>283.1904494716485</v>
       </c>
       <c r="AD4" t="n">
-        <v>150988.7327168063</v>
+        <v>228811.0322229231</v>
       </c>
       <c r="AE4" t="n">
-        <v>206589.4452558089</v>
+        <v>313069.3487175701</v>
       </c>
       <c r="AF4" t="n">
         <v>1.178253469961379e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>186872.8385507609</v>
+        <v>283190.4494716485</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.9623500403453</v>
+        <v>245.1952088411977</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.3405208334675</v>
+        <v>335.4869019855406</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.9297763890844</v>
+        <v>303.4685029189647</v>
       </c>
       <c r="AD2" t="n">
-        <v>163962.3500403453</v>
+        <v>245195.2088411977</v>
       </c>
       <c r="AE2" t="n">
-        <v>224340.5208334675</v>
+        <v>335486.9019855406</v>
       </c>
       <c r="AF2" t="n">
         <v>2.37256726672493e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.74479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>202929.7763890844</v>
+        <v>303468.5029189647</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6574062861691</v>
+        <v>209.6576760832847</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.5584009981208</v>
+        <v>286.8628818608932</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.7991430783643</v>
+        <v>259.4850910307573</v>
       </c>
       <c r="AD2" t="n">
-        <v>143657.4062861691</v>
+        <v>209657.6760832847</v>
       </c>
       <c r="AE2" t="n">
-        <v>196558.4009981208</v>
+        <v>286862.8818608932</v>
       </c>
       <c r="AF2" t="n">
         <v>1.630567387811904e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.28125</v>
       </c>
       <c r="AH2" t="n">
-        <v>177799.1430783643</v>
+        <v>259485.0910307573</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.4599566179178</v>
+        <v>224.2772724540678</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.4436592875549</v>
+        <v>306.8660585864608</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.8820188222872</v>
+        <v>277.579192644278</v>
       </c>
       <c r="AD2" t="n">
-        <v>157459.9566179178</v>
+        <v>224277.2724540678</v>
       </c>
       <c r="AE2" t="n">
-        <v>215443.6592875549</v>
+        <v>306866.0585864608</v>
       </c>
       <c r="AF2" t="n">
         <v>1.368594193270245e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>194882.0188222872</v>
+        <v>277579.192644278</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>146.2521514296242</v>
+        <v>213.0353018469934</v>
       </c>
       <c r="AB3" t="n">
-        <v>200.1086457754711</v>
+        <v>291.4842984411293</v>
       </c>
       <c r="AC3" t="n">
-        <v>181.0105574769652</v>
+        <v>263.665446098776</v>
       </c>
       <c r="AD3" t="n">
-        <v>146252.1514296242</v>
+        <v>213035.3018469934</v>
       </c>
       <c r="AE3" t="n">
-        <v>200108.6457754711</v>
+        <v>291484.2984411293</v>
       </c>
       <c r="AF3" t="n">
         <v>1.439143874187436e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>181010.5574769652</v>
+        <v>263665.446098776</v>
       </c>
     </row>
   </sheetData>
